--- a/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
+++ b/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
@@ -51,10 +51,10 @@
     <t>nesAjap</t>
   </si>
   <si>
-    <t>mngr247214</t>
-  </si>
-  <si>
-    <t>AzEgEnu</t>
+    <t>mngr250218</t>
+  </si>
+  <si>
+    <t>vezYgad</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
+++ b/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mngr83460</t>
   </si>
@@ -31,24 +31,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
-    <t>mngr137319</t>
-  </si>
-  <si>
-    <t>bAdYvyb</t>
-  </si>
-  <si>
-    <t>mngr208106</t>
-  </si>
-  <si>
-    <t>nesAjap</t>
   </si>
   <si>
     <t>mngr250218</t>
@@ -444,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,10 +446,10 @@
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -476,30 +458,6 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
+++ b/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -37,6 +31,12 @@
   </si>
   <si>
     <t>vezYgad</t>
+  </si>
+  <si>
+    <t>mngr266814</t>
+  </si>
+  <si>
+    <t>vAtarEt</t>
   </si>
 </sst>
 </file>
@@ -438,26 +438,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
+++ b/src/test/java/com/github/GandhiTC/java/ThreadsafeFrameWork/testData/LoginData.xlsx
@@ -27,16 +27,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr250218</t>
-  </si>
-  <si>
-    <t>vezYgad</t>
-  </si>
-  <si>
     <t>mngr266814</t>
   </si>
   <si>
     <t>vAtarEt</t>
+  </si>
+  <si>
+    <t>mngr272850</t>
+  </si>
+  <si>
+    <t>zuvYvyv</t>
   </si>
 </sst>
 </file>
@@ -446,18 +446,18 @@
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
